--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FBDA10-9CD9-4812-9ECE-D35D4C49D98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDC45A7-2923-4910-9C44-3F9292357186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <r>
       <rPr>
@@ -2723,6 +2723,48 @@
 - 선행연구 참고해서 그림 표를 만들어보자
 - LDA 모델링으로 주제 추출
 - 7월초 별도 미팅 진행 후 2차논문 진행</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문방향 신규협의
+산학 협약 서류 준비</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 초 논문방향 미팅 w/ 박재흥</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리 교체 후 재확인
+3차원 변환 Sequence 반영
+- 질문: 학습이 잘 안맞는다</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터분석 싸이클 완성!
+시계열 예측 또는 미래 시점 예측에서는 랜덤하게 데이터분리하면 안됨
+특정 시점을 전후해서 Train / Test로 나눈다
+예측 시계열 생성을 하지 않는다.... 왜냐하면 X부터 예측하고 예측된 X로 Y를 예측해야한다! (어렵다!) 
+- 방향: 싸이클 완성도 높인다 -&gt; 다른 알고리즘도 사용해본다!</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터분석 싸이클 완성 예정!
+시계열 예측 또는 미래 시점 예측에서는 랜덤하게 데이터분리하면 안됨
+특정 시점을 전후해서 Train / Test로 나눈다
+예측 시계열 생성을 하지 않는다.... 왜냐하면 X부터 예측하고 예측된 X로 Y를 예측해야한다! (어렵다!) 
+- 질문: Lag 변수 생성 이슈
+- 방향: 싸이클 완성</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계열 예측 또는 미래 시점 예측에서는 랜덤하게 데이터분리하면 안됨
+특정 시점을 전후해서 Train / Test로 나눈다
+예측 시계열 생성을 하지 않는다.... 왜냐하면 X부터 예측하고 예측된 X로 Y를 예측해야한다! (어렵다!) 
+문자값을 숫자값으로 변환하는것
+스케일링은 필수는 아니지만 변수들의 범위를 일정하게 맞추는것
+- 질문: 종속변수(Y)를 승차인원수로 설정한 이유
+- 방향: 싸이클 완성</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3898,132 +3940,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25E687D-2203-47AE-8989-F4F3DAFE827F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" customWidth="1"/>
-    <col min="3" max="3" width="54.4140625" customWidth="1"/>
-    <col min="4" max="4" width="138.4140625" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="4" max="4" width="54.4140625" customWidth="1"/>
+    <col min="5" max="5" width="138.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5">
+    <row r="1" spans="1:5" ht="17.5">
       <c r="A1" s="59" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="62">
+        <v>45492</v>
+      </c>
+      <c r="C1" s="62">
         <v>45470</v>
       </c>
-      <c r="C1" s="62">
+      <c r="D1" s="62">
         <v>45460</v>
       </c>
-      <c r="D1" s="62">
+      <c r="E1" s="62">
         <v>45450</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="119">
+    <row r="2" spans="1:5" ht="119">
       <c r="A2" s="63" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>86</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="85">
+      <c r="E2" s="55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85">
       <c r="A3" s="63" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="136">
+    <row r="4" spans="1:5" ht="136">
       <c r="A4" s="63" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="D4" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="E4" s="61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51">
+    <row r="5" spans="1:5" ht="102">
       <c r="A5" s="63" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="D5" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="E5" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="85">
+    <row r="6" spans="1:5" ht="102">
       <c r="A6" s="63" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="D6" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="E6" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68">
+    <row r="7" spans="1:5" ht="119">
       <c r="A7" s="63" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="D7" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="E7" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51">
+    <row r="8" spans="1:5" ht="136">
       <c r="A8" s="63" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="D8" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="E8" s="61" t="s">
         <v>84</v>
       </c>
     </row>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDC45A7-2923-4910-9C44-3F9292357186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB65388-0F75-4AE3-87C9-A99BD9B0C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회의일지" sheetId="3" r:id="rId1"/>
@@ -3943,22 +3943,22 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
-    <col min="4" max="4" width="54.4140625" customWidth="1"/>
-    <col min="5" max="5" width="138.4140625" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" customWidth="1"/>
+    <col min="5" max="5" width="138.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5">
+    <row r="1" spans="1:5" ht="19.2">
       <c r="A1" s="59" t="s">
         <v>88</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>45450</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119">
+    <row r="2" spans="1:5" ht="121.8">
       <c r="A2" s="63" t="s">
         <v>73</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="85">
+    <row r="3" spans="1:5" ht="87">
       <c r="A3" s="63" t="s">
         <v>74</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="136">
+    <row r="4" spans="1:5" ht="156.6">
       <c r="A4" s="63" t="s">
         <v>75</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="102">
+    <row r="5" spans="1:5" ht="104.4">
       <c r="A5" s="63" t="s">
         <v>76</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="102">
+    <row r="6" spans="1:5" ht="104.4">
       <c r="A6" s="63" t="s">
         <v>77</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="119">
+    <row r="7" spans="1:5" ht="121.8">
       <c r="A7" s="63" t="s">
         <v>79</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="136">
+    <row r="8" spans="1:5" ht="139.19999999999999">
       <c r="A8" s="63" t="s">
         <v>78</v>
       </c>
@@ -4111,15 +4111,15 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.08203125" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="8.9140625" style="53"/>
+    <col min="1" max="1" width="12.5546875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.109375" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5">
+    <row r="1" spans="1:4" ht="19.2">
       <c r="A1" s="59" t="s">
         <v>68</v>
       </c>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C1" s="67"/>
     </row>
-    <row r="2" spans="1:4" ht="323">
+    <row r="2" spans="1:4" ht="348">
       <c r="A2" s="72" t="s">
         <v>85</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="85">
+    <row r="3" spans="1:4" ht="87">
       <c r="A3" s="70"/>
       <c r="B3" s="60" t="s">
         <v>73</v>
@@ -4148,7 +4148,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="85">
+    <row r="4" spans="1:4" ht="87">
       <c r="A4" s="70"/>
       <c r="B4" s="60" t="s">
         <v>74</v>
@@ -4157,7 +4157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="136">
+    <row r="5" spans="1:4" ht="139.19999999999999">
       <c r="A5" s="70"/>
       <c r="B5" s="60" t="s">
         <v>75</v>
@@ -4166,7 +4166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51">
+    <row r="6" spans="1:4" ht="52.2">
       <c r="A6" s="70"/>
       <c r="B6" s="60" t="s">
         <v>76</v>
@@ -4175,7 +4175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="51">
+    <row r="7" spans="1:4" ht="52.2">
       <c r="A7" s="70"/>
       <c r="B7" s="60" t="s">
         <v>77</v>
@@ -4184,7 +4184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34">
+    <row r="8" spans="1:4" ht="34.799999999999997">
       <c r="A8" s="70"/>
       <c r="B8" s="60" t="s">
         <v>79</v>
@@ -4193,7 +4193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51">
+    <row r="9" spans="1:4" ht="52.2">
       <c r="A9" s="71"/>
       <c r="B9" s="60" t="s">
         <v>78</v>
@@ -4202,7 +4202,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="119">
+    <row r="10" spans="1:4" ht="121.8">
       <c r="A10" s="68" t="s">
         <v>80</v>
       </c>
@@ -4214,21 +4214,21 @@
       </c>
       <c r="D10" s="56"/>
     </row>
-    <row r="11" spans="1:4" ht="85">
+    <row r="11" spans="1:4" ht="87">
       <c r="A11" s="68"/>
       <c r="B11" s="70"/>
       <c r="C11" s="57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="153">
+    <row r="12" spans="1:4" ht="174">
       <c r="A12" s="68"/>
       <c r="B12" s="71"/>
       <c r="C12" s="57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="136">
+    <row r="13" spans="1:4" ht="139.19999999999999">
       <c r="A13" s="68"/>
       <c r="B13" s="54" t="s">
         <v>66</v>
@@ -4260,14 +4260,14 @@
       <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="9" width="28.4140625" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="2" max="9" width="28.44140625" customWidth="1"/>
     <col min="10" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="17.399999999999999">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="18">
+    <row r="2" spans="1:26" ht="17.399999999999999">
       <c r="A2" s="74"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -4345,7 +4345,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="16">
+    <row r="3" spans="1:26" ht="26.4">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="50">
+    <row r="4" spans="1:26" ht="66">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="144">
+    <row r="5" spans="1:26" ht="211.2">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -4483,7 +4483,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="35">
+    <row r="6" spans="1:26" ht="38.4">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -4529,7 +4529,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="52.5">
+    <row r="7" spans="1:26" ht="57.6">
       <c r="A7" s="25" t="s">
         <v>41</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="85.5">
+    <row r="8" spans="1:26" ht="99.6">
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="37.5">
+    <row r="9" spans="1:26" ht="39.6">
       <c r="A9" s="25" t="s">
         <v>45</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="32">
+    <row r="10" spans="1:26" ht="31.2">
       <c r="A10" s="30" t="s">
         <v>47</v>
       </c>
@@ -4689,7 +4689,7 @@
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" ht="16">
+    <row r="11" spans="1:26" ht="15.6">
       <c r="A11" s="30" t="s">
         <v>53</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
     </row>
-    <row r="12" spans="1:26" ht="17.5">
+    <row r="12" spans="1:26" ht="19.2">
       <c r="A12" s="34" t="s">
         <v>56</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
     </row>
-    <row r="13" spans="1:26" ht="144">
+    <row r="13" spans="1:26" ht="156">
       <c r="A13" s="38" t="s">
         <v>57</v>
       </c>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB65388-0F75-4AE3-87C9-A99BD9B0C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B6369F-DD7C-44FF-93AF-7A90FF3F7FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11530" yWindow="3990" windowWidth="28800" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회의일지" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
   <si>
     <r>
       <rPr>
@@ -2767,6 +2767,76 @@
 - 방향: 싸이클 완성</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>8월 2일</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>산학 협약 서류는 9월로 변경
+8월 중 업데이트 회의</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 전처리 3차원 변환 완료
+- 딥러닝 공부 및 코드 업데이트
+- 논문 미팅 예쩡</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 인덱스 에러 -&gt; 중복이 있을테니 확인 필요
+- 함수 미출력 -&gt; 출력값을 받아서 출력해야 함
+- 차원 이슈 -&gt; 데이터 형태를 확인
+- 검증지표 작동을 위한 추가 함수 제공
+- 방향: 검증지표 업데이트 + Lag 함수 반영 + 전체 코드 함수화 정리</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 데이터분석 싸이큰 완성!
+- 검증지표 함수 반영 완료
+- Lag 함수 활용 진행중
+- 방향: 검증지표 업데이트 + Lag 함수 반영 + 전체 코드 함수화 정리</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 카톡 안보내짐 -&gt; 해결
+- 업데이트 후 카톡 공유 및 피드백 전달 예정</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 방향: 검증지표 업데이트 + Lag 함수 반영 + 전체 코드 함수화 정리</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 9일</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Train &amp; Test loss 반영
+- epoch 수 조정중
+- early stopping 반영</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- RF 인덱스 이슈 -&gt; 인덱스를 저장해서 재사용
+- RF 이론적인 이슈는 유투브</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 분석 싸이클 완성
+- RF 시도중
+- Lagging 함수 설명
+- 동해선 21년 12월부터 반영하도록 필터링 or 검증지표에서 0처리</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 노선과 요일 분해 필요</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 반복문 변환을 기존코드와 비교 필요
+- 차원이슈는 효정이 코멘트 확인 필요</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3940,59 +4010,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25E687D-2203-47AE-8989-F4F3DAFE827F}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" customWidth="1"/>
-    <col min="5" max="5" width="138.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="67.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.08203125" customWidth="1"/>
+    <col min="6" max="6" width="54.4140625" customWidth="1"/>
+    <col min="7" max="7" width="138.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2">
+    <row r="1" spans="1:7" ht="17.5">
       <c r="A1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="62">
+      <c r="B1" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="62">
         <v>45492</v>
       </c>
-      <c r="C1" s="62">
+      <c r="E1" s="62">
         <v>45470</v>
       </c>
-      <c r="D1" s="62">
+      <c r="F1" s="62">
         <v>45460</v>
       </c>
-      <c r="E1" s="62">
+      <c r="G1" s="62">
         <v>45450</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="121.8">
+    <row r="2" spans="1:7" ht="119">
       <c r="A2" s="63" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="E2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="F2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="G2" s="55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="87">
+    <row r="3" spans="1:7" ht="85">
       <c r="A3" s="63" t="s">
         <v>74</v>
       </c>
@@ -4000,97 +4082,133 @@
         <v>101</v>
       </c>
       <c r="C3" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="F3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="G3" s="61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="156.6">
+    <row r="4" spans="1:7" ht="136">
       <c r="A4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="E4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="F4" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="G4" s="61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="104.4">
+    <row r="5" spans="1:7" ht="102">
       <c r="A5" s="63" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="E5" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="F5" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="G5" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="104.4">
+    <row r="6" spans="1:7" ht="102">
       <c r="A6" s="63" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="E6" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="F6" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="G6" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="121.8">
+    <row r="7" spans="1:7" ht="119">
       <c r="A7" s="63" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="E7" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="F7" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="G7" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="139.19999999999999">
+    <row r="8" spans="1:7" ht="136">
       <c r="A8" s="63" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="E8" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="F8" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="G8" s="61" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4111,15 +4229,15 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="53" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.109375" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="53"/>
+    <col min="1" max="1" width="12.58203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.08203125" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="8.9140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2">
+    <row r="1" spans="1:4" ht="17.5">
       <c r="A1" s="59" t="s">
         <v>68</v>
       </c>
@@ -4128,7 +4246,7 @@
       </c>
       <c r="C1" s="67"/>
     </row>
-    <row r="2" spans="1:4" ht="348">
+    <row r="2" spans="1:4" ht="323">
       <c r="A2" s="72" t="s">
         <v>85</v>
       </c>
@@ -4139,7 +4257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="87">
+    <row r="3" spans="1:4" ht="85">
       <c r="A3" s="70"/>
       <c r="B3" s="60" t="s">
         <v>73</v>
@@ -4148,7 +4266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="87">
+    <row r="4" spans="1:4" ht="85">
       <c r="A4" s="70"/>
       <c r="B4" s="60" t="s">
         <v>74</v>
@@ -4157,7 +4275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="139.19999999999999">
+    <row r="5" spans="1:4" ht="136">
       <c r="A5" s="70"/>
       <c r="B5" s="60" t="s">
         <v>75</v>
@@ -4166,7 +4284,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="52.2">
+    <row r="6" spans="1:4" ht="51">
       <c r="A6" s="70"/>
       <c r="B6" s="60" t="s">
         <v>76</v>
@@ -4175,7 +4293,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="52.2">
+    <row r="7" spans="1:4" ht="51">
       <c r="A7" s="70"/>
       <c r="B7" s="60" t="s">
         <v>77</v>
@@ -4184,7 +4302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34.799999999999997">
+    <row r="8" spans="1:4" ht="34">
       <c r="A8" s="70"/>
       <c r="B8" s="60" t="s">
         <v>79</v>
@@ -4193,7 +4311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="52.2">
+    <row r="9" spans="1:4" ht="51">
       <c r="A9" s="71"/>
       <c r="B9" s="60" t="s">
         <v>78</v>
@@ -4202,7 +4320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="121.8">
+    <row r="10" spans="1:4" ht="119">
       <c r="A10" s="68" t="s">
         <v>80</v>
       </c>
@@ -4214,21 +4332,21 @@
       </c>
       <c r="D10" s="56"/>
     </row>
-    <row r="11" spans="1:4" ht="87">
+    <row r="11" spans="1:4" ht="85">
       <c r="A11" s="68"/>
       <c r="B11" s="70"/>
       <c r="C11" s="57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="174">
+    <row r="12" spans="1:4" ht="153">
       <c r="A12" s="68"/>
       <c r="B12" s="71"/>
       <c r="C12" s="57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="139.19999999999999">
+    <row r="13" spans="1:4" ht="136">
       <c r="A13" s="68"/>
       <c r="B13" s="54" t="s">
         <v>66</v>
@@ -4260,14 +4378,14 @@
       <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
-    <col min="2" max="9" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="9" width="28.4140625" customWidth="1"/>
     <col min="10" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.399999999999999">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4419,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="17.399999999999999">
+    <row r="2" spans="1:26" ht="18">
       <c r="A2" s="74"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -4345,7 +4463,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="26.4">
+    <row r="3" spans="1:26" ht="16">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4391,7 +4509,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="66">
+    <row r="4" spans="1:26" ht="50">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
@@ -4437,7 +4555,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="211.2">
+    <row r="5" spans="1:26" ht="144">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -4483,7 +4601,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="38.4">
+    <row r="6" spans="1:26" ht="35">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -4529,7 +4647,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="57.6">
+    <row r="7" spans="1:26" ht="52.5">
       <c r="A7" s="25" t="s">
         <v>41</v>
       </c>
@@ -4575,7 +4693,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="99.6">
+    <row r="8" spans="1:26" ht="85.5">
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
@@ -4611,7 +4729,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="39.6">
+    <row r="9" spans="1:26" ht="37.5">
       <c r="A9" s="25" t="s">
         <v>45</v>
       </c>
@@ -4647,7 +4765,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="31.2">
+    <row r="10" spans="1:26" ht="32">
       <c r="A10" s="30" t="s">
         <v>47</v>
       </c>
@@ -4689,7 +4807,7 @@
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" ht="15.6">
+    <row r="11" spans="1:26" ht="16">
       <c r="A11" s="30" t="s">
         <v>53</v>
       </c>
@@ -4727,7 +4845,7 @@
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
     </row>
-    <row r="12" spans="1:26" ht="19.2">
+    <row r="12" spans="1:26" ht="17.5">
       <c r="A12" s="34" t="s">
         <v>56</v>
       </c>
@@ -4767,7 +4885,7 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
     </row>
-    <row r="13" spans="1:26" ht="156">
+    <row r="13" spans="1:26" ht="144">
       <c r="A13" s="38" t="s">
         <v>57</v>
       </c>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B6369F-DD7C-44FF-93AF-7A90FF3F7FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691F9D6-2050-4065-B6CC-68E6DECA830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11530" yWindow="3990" windowWidth="28800" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회의일지" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
   <si>
     <r>
       <rPr>
@@ -2837,6 +2837,50 @@
 - 차원이슈는 효정이 코멘트 확인 필요</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>8월 23일</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 논문겸 프로젝트 준비중
+- 치매노인의 문제점 인식방향 개선 연구
+- 영화 리뷰 정보 크롤링
+- puppeteer 라이브러리 사용중
+- 실관람객은 잘 되니 네티즌 부분을 손을 보고 Naver 말고 CGV도 할 계획
+- 미팅하고 방향 진행 예정</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 논문 작성법 영상 -&gt; 선행연구 작성중</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 비용함수를 줄이는 방향을 확인할수 있는가?
+- ML 적용 -&gt; Feature Importance
+- "파이썬 or 알고리즘 or 기술"(도구 40%)  +  데이터분석(실행 60%) -&gt; !!!</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Catboost 적용 완료
+- 미래 X값 반영 진행중
+- Multispet ahead~~~</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 데이터분석 프로세스 완성
+- ML 적용
+- 차주 참석 어려움</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 데이터 분석 프로세스 완성
+- 모델링 ML 반영 예정</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4010,76 +4054,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25E687D-2203-47AE-8989-F4F3DAFE827F}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="67.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.08203125" customWidth="1"/>
-    <col min="6" max="6" width="54.4140625" customWidth="1"/>
-    <col min="7" max="7" width="138.4140625" customWidth="1"/>
+    <col min="2" max="5" width="67.33203125" customWidth="1"/>
+    <col min="6" max="6" width="44.08203125" customWidth="1"/>
+    <col min="7" max="7" width="54.4140625" customWidth="1"/>
+    <col min="8" max="8" width="138.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.5">
+    <row r="1" spans="1:8" ht="17.5">
       <c r="A1" s="59" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="D1" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="62">
+      <c r="E1" s="62">
         <v>45492</v>
       </c>
-      <c r="E1" s="62">
+      <c r="F1" s="62">
         <v>45470</v>
       </c>
-      <c r="F1" s="62">
+      <c r="G1" s="62">
         <v>45460</v>
       </c>
-      <c r="G1" s="62">
+      <c r="H1" s="62">
         <v>45450</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="119">
+    <row r="2" spans="1:8" ht="119">
       <c r="A2" s="63" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>107</v>
       </c>
       <c r="D2" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="F2" s="65" t="s">
         <v>99</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>86</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="85">
+      <c r="H2" s="55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85">
       <c r="A3" s="63" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>101</v>
@@ -4088,127 +4138,145 @@
         <v>101</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="136">
+    <row r="4" spans="1:8" ht="136">
       <c r="A4" s="63" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="D4" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="E4" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="F4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="G4" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="H4" s="61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="102">
+    <row r="5" spans="1:8" ht="102">
       <c r="A5" s="63" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="D5" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="E5" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="F5" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="G5" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="H5" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="102">
+    <row r="6" spans="1:8" ht="102">
       <c r="A6" s="63" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="D6" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="E6" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="F6" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="G6" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="H6" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="119">
+    <row r="7" spans="1:8" ht="119">
       <c r="A7" s="63" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="D7" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="E7" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="F7" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="G7" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="H7" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="136">
+    <row r="8" spans="1:8" ht="136">
       <c r="A8" s="63" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="D8" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="E8" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="F8" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="G8" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="H8" s="61" t="s">
         <v>84</v>
       </c>
     </row>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691F9D6-2050-4065-B6CC-68E6DECA830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA325F68-1450-40BC-9D36-29A9B0E0A24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2838,10 +2838,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>8월 23일</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>- 논문겸 프로젝트 준비중
 - 치매노인의 문제점 인식방향 개선 연구
 - 영화 리뷰 정보 크롤링
@@ -2855,30 +2851,35 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>- 논문 작성법 영상 -&gt; 선행연구 작성중</t>
+    <t>- 데이터분석 프로세스 완성
+- ML 적용
+- 차주 참석 어려움</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 23일 + 8월 31일</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 논문 작성법 영상 -&gt; 선행연구 작성중
+- 25년 12월까지 예측함(직선에 가깝다) </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>- 비용함수를 줄이는 방향을 확인할수 있는가?
-- ML 적용 -&gt; Feature Importance
+- ML 적용 -&gt; Feature Importance -&gt; Feature Selection
 - "파이썬 or 알고리즘 or 기술"(도구 40%)  +  데이터분석(실행 60%) -&gt; !!!</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>- Catboost 적용 완료
 - 미래 X값 반영 진행중
-- Multispet ahead~~~</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 데이터분석 프로세스 완성
-- ML 적용
-- 차주 참석 어려움</t>
+- Deep Learning 스터디</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>- 데이터 분석 프로세스 완성
-- 모델링 ML 반영 예정</t>
+- 모델링 ML 반영 예정 (RF 완료)</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -4060,7 +4061,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4077,7 +4078,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C1" s="62" t="s">
         <v>113</v>
@@ -4103,7 +4104,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>107</v>
@@ -4129,7 +4130,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>101</v>
@@ -4155,7 +4156,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" s="65" t="s">
         <v>114</v>
@@ -4181,7 +4182,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>115</v>
@@ -4207,7 +4208,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>116</v>
@@ -4233,7 +4234,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>118</v>
